--- a/江苏电信-组播-标清.xlsx
+++ b/江苏电信-组播-标清.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7515"/>
+    <workbookView windowWidth="20130" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="222">
   <si>
     <t>节目</t>
   </si>
@@ -52,631 +52,637 @@
     <t>CCTV-6</t>
   </si>
   <si>
+    <t>CCTV-17</t>
+  </si>
+  <si>
+    <t>CCTV-8</t>
+  </si>
+  <si>
+    <t>CCTV-9</t>
+  </si>
+  <si>
+    <t>CCTV-10</t>
+  </si>
+  <si>
+    <t>CCTV-11</t>
+  </si>
+  <si>
+    <t>CCTV-12</t>
+  </si>
+  <si>
+    <t>CCTV-13</t>
+  </si>
+  <si>
+    <t>CCTV-14</t>
+  </si>
+  <si>
+    <t>CCTV-15</t>
+  </si>
+  <si>
+    <t>江苏卫视</t>
+  </si>
+  <si>
+    <t>江苏城市</t>
+  </si>
+  <si>
+    <t>江苏综艺</t>
+  </si>
+  <si>
+    <t>江苏体育休闲</t>
+  </si>
+  <si>
+    <t>江苏影视</t>
+  </si>
+  <si>
+    <t>优漫卡通</t>
+  </si>
+  <si>
+    <t>江苏公共新闻</t>
+  </si>
+  <si>
+    <t>江苏国际</t>
+  </si>
+  <si>
+    <t>好享购物</t>
+  </si>
+  <si>
+    <t>江苏教育</t>
+  </si>
+  <si>
+    <t>靓妆频道</t>
+  </si>
+  <si>
+    <t>南京科教</t>
+  </si>
+  <si>
+    <t>南京生活</t>
+  </si>
+  <si>
+    <t>财富天下</t>
+  </si>
+  <si>
+    <t>优购物</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>忽略</t>
+  </si>
+  <si>
+    <t>东方卫视</t>
+  </si>
+  <si>
+    <t>北京卫视</t>
+  </si>
+  <si>
+    <t>浙江卫视</t>
+  </si>
+  <si>
+    <t>辽宁卫视</t>
+  </si>
+  <si>
+    <t>安徽卫视</t>
+  </si>
+  <si>
+    <t>山东卫视</t>
+  </si>
+  <si>
+    <t>湖南卫视</t>
+  </si>
+  <si>
+    <t>广东卫视</t>
+  </si>
+  <si>
+    <t>广西卫视</t>
+  </si>
+  <si>
+    <t>海南卫视</t>
+  </si>
+  <si>
+    <t>重庆卫视</t>
+  </si>
+  <si>
+    <t>四川卫视</t>
+  </si>
+  <si>
+    <t>河南卫视</t>
+  </si>
+  <si>
+    <t>东南卫视</t>
+  </si>
+  <si>
+    <t>天津卫视</t>
+  </si>
+  <si>
+    <t>江西卫视</t>
+  </si>
+  <si>
+    <t>湖北卫视</t>
+  </si>
+  <si>
+    <t>吉林卫视-1</t>
+  </si>
+  <si>
+    <t>黑龙江卫视</t>
+  </si>
+  <si>
+    <t>山西卫视</t>
+  </si>
+  <si>
+    <t>贵州卫视</t>
+  </si>
+  <si>
+    <t>青海卫视</t>
+  </si>
+  <si>
+    <t>CETV-1</t>
+  </si>
+  <si>
+    <t>CETV-2</t>
+  </si>
+  <si>
+    <t>CETV-4</t>
+  </si>
+  <si>
+    <t>中国气象频道</t>
+  </si>
+  <si>
+    <t>深圳卫视</t>
+  </si>
+  <si>
+    <t>电视指南</t>
+  </si>
+  <si>
+    <t>风云足球</t>
+  </si>
+  <si>
+    <t>高尔夫网球</t>
+  </si>
+  <si>
+    <t>世界地理</t>
+  </si>
+  <si>
+    <t>国防军事</t>
+  </si>
+  <si>
+    <t>风云剧场</t>
+  </si>
+  <si>
+    <t>央视文化精品</t>
+  </si>
+  <si>
+    <t>央视怀旧剧场</t>
+  </si>
+  <si>
+    <t>风云音乐</t>
+  </si>
+  <si>
+    <t>女性时尚</t>
+  </si>
+  <si>
+    <t>中华美食</t>
+  </si>
+  <si>
+    <t>辽宁游戏竞技</t>
+  </si>
+  <si>
+    <t>江苏导视</t>
+  </si>
+  <si>
+    <t>看新闻吧</t>
+  </si>
+  <si>
+    <t>江苏体坛风云</t>
+  </si>
+  <si>
+    <t>DOGTV</t>
+  </si>
+  <si>
+    <t>江苏游戏达人</t>
+  </si>
+  <si>
+    <t>江苏火爆片场</t>
+  </si>
+  <si>
+    <t>江苏华语片场</t>
+  </si>
+  <si>
+    <t>江苏生活剧场</t>
+  </si>
+  <si>
+    <t>江苏金庸武侠</t>
+  </si>
+  <si>
+    <t>江苏谍战悬疑</t>
+  </si>
+  <si>
+    <t>江苏超炫动慢</t>
+  </si>
+  <si>
+    <t>江苏娱乐秀场</t>
+  </si>
+  <si>
+    <t>江苏随音听乐</t>
+  </si>
+  <si>
+    <t>江苏寰宇纪实</t>
+  </si>
+  <si>
+    <t>江苏史海钩沉</t>
+  </si>
+  <si>
+    <t>江苏谈股论金</t>
+  </si>
+  <si>
+    <t>江苏养生</t>
+  </si>
+  <si>
+    <t>江苏时尚女人</t>
+  </si>
+  <si>
+    <t>江苏铁血军事</t>
+  </si>
+  <si>
+    <t>江苏举案说法</t>
+  </si>
+  <si>
+    <t>淮安影视娱乐</t>
+  </si>
+  <si>
+    <t>淮安公共</t>
+  </si>
+  <si>
+    <t>淮安综合</t>
+  </si>
+  <si>
+    <t>宿豫综合</t>
+  </si>
+  <si>
+    <t>搏击俱乐部</t>
+  </si>
+  <si>
+    <t>东海文娱</t>
+  </si>
+  <si>
+    <t>东海国学与家道</t>
+  </si>
+  <si>
+    <t>泗阳综合</t>
+  </si>
+  <si>
+    <t>央广健康</t>
+  </si>
+  <si>
+    <t>徐州-4</t>
+  </si>
+  <si>
+    <t>徐州-3</t>
+  </si>
+  <si>
+    <t>徐州-2</t>
+  </si>
+  <si>
+    <t>徐州-1</t>
+  </si>
+  <si>
+    <t>央广购物</t>
+  </si>
+  <si>
+    <t>沭阳综合</t>
+  </si>
+  <si>
+    <t>BesTV-电影1</t>
+  </si>
+  <si>
+    <t>max极速汽车</t>
+  </si>
+  <si>
+    <t>BesTV-戏曲</t>
+  </si>
+  <si>
+    <t>BesTV-学习</t>
+  </si>
+  <si>
+    <t>BesTV-电视剧1</t>
+  </si>
+  <si>
+    <t>宿迁公共</t>
+  </si>
+  <si>
+    <t>江苏学习频道</t>
+  </si>
+  <si>
+    <t>泗洪综合</t>
+  </si>
+  <si>
+    <t>常州公共</t>
+  </si>
+  <si>
+    <t>常州生活</t>
+  </si>
+  <si>
+    <t>常州都市</t>
+  </si>
+  <si>
+    <t>常州新闻综合</t>
+  </si>
+  <si>
+    <t>东海新闻</t>
+  </si>
+  <si>
+    <t>西藏卫视</t>
+  </si>
+  <si>
+    <t>宿迁综合</t>
+  </si>
+  <si>
+    <t>无锡教育</t>
+  </si>
+  <si>
+    <t>高淳新闻</t>
+  </si>
+  <si>
+    <t>吉林卫视-2</t>
+  </si>
+  <si>
+    <t>百视通149</t>
+  </si>
+  <si>
+    <t>百视通150</t>
+  </si>
+  <si>
+    <t>上海纪实</t>
+  </si>
+  <si>
+    <t>百视通152</t>
+  </si>
+  <si>
+    <t>江苏十八</t>
+  </si>
+  <si>
+    <t>NBS南京新闻综合</t>
+  </si>
+  <si>
+    <t>体彩玩法直播</t>
+  </si>
+  <si>
+    <t>高频彩票</t>
+  </si>
+  <si>
+    <t>体彩教育</t>
+  </si>
+  <si>
+    <t>全纪录</t>
+  </si>
+  <si>
+    <t>快乐购物</t>
+  </si>
+  <si>
+    <t>第一财经-2</t>
+  </si>
+  <si>
+    <t>金色频道</t>
+  </si>
+  <si>
+    <t>CITY都市剧场</t>
+  </si>
+  <si>
+    <t>动漫秀场</t>
+  </si>
+  <si>
+    <t>幸福彩</t>
+  </si>
+  <si>
+    <t>全纪实</t>
+  </si>
+  <si>
+    <t>法制天地</t>
+  </si>
+  <si>
+    <t>七彩戏剧</t>
+  </si>
+  <si>
+    <t>欢笑剧场</t>
+  </si>
+  <si>
+    <t>游戏风云-1</t>
+  </si>
+  <si>
+    <t>极速汽车-1</t>
+  </si>
+  <si>
+    <t>魅力音乐</t>
+  </si>
+  <si>
+    <t>劲爆体育</t>
+  </si>
+  <si>
+    <t>生活时尚</t>
+  </si>
+  <si>
+    <t>东方财经</t>
+  </si>
+  <si>
+    <t>百视通183</t>
+  </si>
+  <si>
+    <t>百视通184</t>
+  </si>
+  <si>
+    <t>百视通185</t>
+  </si>
+  <si>
+    <t>百视通186</t>
+  </si>
+  <si>
+    <t>百视通187</t>
+  </si>
+  <si>
+    <t>百视通188</t>
+  </si>
+  <si>
+    <t>电竞世界</t>
+  </si>
+  <si>
+    <t>百视通190</t>
+  </si>
+  <si>
+    <t>百视通191</t>
+  </si>
+  <si>
+    <t>百视通192</t>
+  </si>
+  <si>
+    <t>游戏风云-2</t>
+  </si>
+  <si>
+    <t>百视通194</t>
+  </si>
+  <si>
+    <t>百视通195</t>
+  </si>
+  <si>
+    <t>BesTV-电影2</t>
+  </si>
+  <si>
+    <t>BesTV-电影3</t>
+  </si>
+  <si>
+    <t>BesTV-电视剧2</t>
+  </si>
+  <si>
+    <t>第一财经-1</t>
+  </si>
+  <si>
+    <t>BesTV-港剧</t>
+  </si>
+  <si>
+    <t>百视通202</t>
+  </si>
+  <si>
+    <t>百视通203</t>
+  </si>
+  <si>
+    <t>百视通204</t>
+  </si>
+  <si>
+    <t>百视通205</t>
+  </si>
+  <si>
+    <t>百视通206</t>
+  </si>
+  <si>
+    <t>百视通207</t>
+  </si>
+  <si>
+    <t>百视通208</t>
+  </si>
+  <si>
+    <t>百视通209</t>
+  </si>
+  <si>
+    <t>百视通210</t>
+  </si>
+  <si>
+    <t>BesTV-电视剧3</t>
+  </si>
+  <si>
+    <t>BesTV-动漫</t>
+  </si>
+  <si>
+    <t>嘉佳卡通</t>
+  </si>
+  <si>
+    <t>上海娱乐</t>
+  </si>
+  <si>
+    <t>百视通216</t>
+  </si>
+  <si>
+    <t>百视通217</t>
+  </si>
+  <si>
+    <t>超级盛典</t>
+  </si>
+  <si>
+    <t>百视通220</t>
+  </si>
+  <si>
+    <t>BesTV-养生</t>
+  </si>
+  <si>
+    <t>百视通222</t>
+  </si>
+  <si>
+    <t>百视通223</t>
+  </si>
+  <si>
+    <t>百视通224</t>
+  </si>
+  <si>
+    <t>快乐垂钓(HD)</t>
+  </si>
+  <si>
+    <t>第一剧场</t>
+  </si>
+  <si>
+    <t>书画频道</t>
+  </si>
+  <si>
+    <t>徐州新闻频道</t>
+  </si>
+  <si>
+    <t>徐州生活频道</t>
+  </si>
+  <si>
+    <t>徐州影视剧</t>
+  </si>
+  <si>
+    <t>新沂广告频道</t>
+  </si>
+  <si>
+    <t>邳州综合</t>
+  </si>
+  <si>
+    <t>先锋乒羽</t>
+  </si>
+  <si>
+    <t>茶频道(HD)</t>
+  </si>
+  <si>
+    <t>云南卫视</t>
+  </si>
+  <si>
+    <t>河北卫视</t>
+  </si>
+  <si>
+    <t>宁夏卫视</t>
+  </si>
+  <si>
+    <t>甘肃卫视</t>
+  </si>
+  <si>
+    <t>新疆卫视</t>
+  </si>
+  <si>
+    <t>内蒙古卫视</t>
+  </si>
+  <si>
+    <t>东方购物</t>
+  </si>
+  <si>
+    <t>连云港新闻综合</t>
+  </si>
+  <si>
+    <t>连云港公共</t>
+  </si>
+  <si>
+    <t>连云港综合</t>
+  </si>
+  <si>
+    <t>赣榆电视台</t>
+  </si>
+  <si>
+    <t>陕西卫视</t>
+  </si>
+  <si>
+    <t>广东南方卫视TVS2</t>
+  </si>
+  <si>
+    <t>山东教育SDETV</t>
+  </si>
+  <si>
+    <t>测试251</t>
+  </si>
+  <si>
+    <t>家有购物</t>
+  </si>
+  <si>
+    <t>九屏导视(HD)</t>
+  </si>
+  <si>
     <t>CCTV-7</t>
-  </si>
-  <si>
-    <t>CCTV-8</t>
-  </si>
-  <si>
-    <t>CCTV-9</t>
-  </si>
-  <si>
-    <t>CCTV-10</t>
-  </si>
-  <si>
-    <t>CCTV-11</t>
-  </si>
-  <si>
-    <t>CCTV-12</t>
-  </si>
-  <si>
-    <t>CCTV-13</t>
-  </si>
-  <si>
-    <t>CCTV-14</t>
-  </si>
-  <si>
-    <t>CCTV-15</t>
-  </si>
-  <si>
-    <t>江苏卫视</t>
-  </si>
-  <si>
-    <t>江苏城市</t>
-  </si>
-  <si>
-    <t>江苏综艺</t>
-  </si>
-  <si>
-    <t>江苏体育休闲</t>
-  </si>
-  <si>
-    <t>江苏影视</t>
-  </si>
-  <si>
-    <t>优漫卡通</t>
-  </si>
-  <si>
-    <t>江苏公共新闻</t>
-  </si>
-  <si>
-    <t>江苏国际</t>
-  </si>
-  <si>
-    <t>好享购物</t>
-  </si>
-  <si>
-    <t>江苏教育</t>
-  </si>
-  <si>
-    <t>靓妆频道</t>
-  </si>
-  <si>
-    <t>南京科教</t>
-  </si>
-  <si>
-    <t>南京生活</t>
-  </si>
-  <si>
-    <t>财富天下</t>
-  </si>
-  <si>
-    <t>优购物</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>忽略</t>
-  </si>
-  <si>
-    <t>东方卫视</t>
-  </si>
-  <si>
-    <t>北京卫视</t>
-  </si>
-  <si>
-    <t>浙江卫视</t>
-  </si>
-  <si>
-    <t>辽宁卫视</t>
-  </si>
-  <si>
-    <t>安徽卫视</t>
-  </si>
-  <si>
-    <t>山东卫视</t>
-  </si>
-  <si>
-    <t>湖南卫视</t>
-  </si>
-  <si>
-    <t>广东卫视</t>
-  </si>
-  <si>
-    <t>广西卫视</t>
-  </si>
-  <si>
-    <t>海南卫视</t>
-  </si>
-  <si>
-    <t>重庆卫视</t>
-  </si>
-  <si>
-    <t>四川卫视</t>
-  </si>
-  <si>
-    <t>河南卫视</t>
-  </si>
-  <si>
-    <t>东南卫视</t>
-  </si>
-  <si>
-    <t>天津卫视</t>
-  </si>
-  <si>
-    <t>江西卫视</t>
-  </si>
-  <si>
-    <t>湖北卫视</t>
-  </si>
-  <si>
-    <t>吉林卫视-1</t>
-  </si>
-  <si>
-    <t>黑龙江卫视</t>
-  </si>
-  <si>
-    <t>山西卫视</t>
-  </si>
-  <si>
-    <t>贵州卫视</t>
-  </si>
-  <si>
-    <t>青海卫视</t>
-  </si>
-  <si>
-    <t>CETV-1</t>
-  </si>
-  <si>
-    <t>CETV-2</t>
-  </si>
-  <si>
-    <t>CETV-4</t>
-  </si>
-  <si>
-    <t>中国气象频道</t>
-  </si>
-  <si>
-    <t>深圳卫视</t>
-  </si>
-  <si>
-    <t>电视指南</t>
-  </si>
-  <si>
-    <t>风云足球</t>
-  </si>
-  <si>
-    <t>高尔夫网球</t>
-  </si>
-  <si>
-    <t>世界地理</t>
-  </si>
-  <si>
-    <t>国防军事</t>
-  </si>
-  <si>
-    <t>风云剧场</t>
-  </si>
-  <si>
-    <t>央视文化精品</t>
-  </si>
-  <si>
-    <t>央视怀旧剧场</t>
-  </si>
-  <si>
-    <t>风云音乐</t>
-  </si>
-  <si>
-    <t>女性时尚</t>
-  </si>
-  <si>
-    <t>中华美食</t>
-  </si>
-  <si>
-    <t>辽宁游戏竞技</t>
-  </si>
-  <si>
-    <t>江苏导视</t>
-  </si>
-  <si>
-    <t>看新闻吧</t>
-  </si>
-  <si>
-    <t>江苏体坛风云</t>
-  </si>
-  <si>
-    <t>DOGTV</t>
-  </si>
-  <si>
-    <t>江苏游戏达人</t>
-  </si>
-  <si>
-    <t>江苏火爆片场</t>
-  </si>
-  <si>
-    <t>江苏华语片场</t>
-  </si>
-  <si>
-    <t>江苏生活剧场</t>
-  </si>
-  <si>
-    <t>江苏金庸武侠</t>
-  </si>
-  <si>
-    <t>江苏谍战悬疑</t>
-  </si>
-  <si>
-    <t>江苏超炫动慢</t>
-  </si>
-  <si>
-    <t>江苏娱乐秀场</t>
-  </si>
-  <si>
-    <t>江苏随音听乐</t>
-  </si>
-  <si>
-    <t>江苏寰宇纪实</t>
-  </si>
-  <si>
-    <t>江苏史海钩沉</t>
-  </si>
-  <si>
-    <t>江苏谈股论金</t>
-  </si>
-  <si>
-    <t>江苏养生</t>
-  </si>
-  <si>
-    <t>江苏时尚女人</t>
-  </si>
-  <si>
-    <t>江苏铁血军事</t>
-  </si>
-  <si>
-    <t>江苏举案说法</t>
-  </si>
-  <si>
-    <t>淮安影视娱乐</t>
-  </si>
-  <si>
-    <t>淮安公共</t>
-  </si>
-  <si>
-    <t>淮安综合</t>
-  </si>
-  <si>
-    <t>宿豫综合</t>
-  </si>
-  <si>
-    <t>搏击俱乐部</t>
-  </si>
-  <si>
-    <t>东海文娱</t>
-  </si>
-  <si>
-    <t>东海国学与家道</t>
-  </si>
-  <si>
-    <t>泗阳综合</t>
-  </si>
-  <si>
-    <t>央广健康</t>
-  </si>
-  <si>
-    <t>徐州-4</t>
-  </si>
-  <si>
-    <t>徐州-3</t>
-  </si>
-  <si>
-    <t>徐州-2</t>
-  </si>
-  <si>
-    <t>徐州-1</t>
-  </si>
-  <si>
-    <t>央广购物</t>
-  </si>
-  <si>
-    <t>沭阳综合</t>
-  </si>
-  <si>
-    <t>BesTV-电影1</t>
-  </si>
-  <si>
-    <t>max极速汽车</t>
-  </si>
-  <si>
-    <t>BesTV-戏曲</t>
-  </si>
-  <si>
-    <t>BesTV-学习</t>
-  </si>
-  <si>
-    <t>BesTV-电视剧1</t>
-  </si>
-  <si>
-    <t>宿迁公共</t>
-  </si>
-  <si>
-    <t>江苏学习频道</t>
-  </si>
-  <si>
-    <t>泗洪综合</t>
-  </si>
-  <si>
-    <t>常州公共</t>
-  </si>
-  <si>
-    <t>常州生活</t>
-  </si>
-  <si>
-    <t>常州都市</t>
-  </si>
-  <si>
-    <t>常州新闻综合</t>
-  </si>
-  <si>
-    <t>东海新闻</t>
-  </si>
-  <si>
-    <t>西藏卫视</t>
-  </si>
-  <si>
-    <t>宿迁综合</t>
-  </si>
-  <si>
-    <t>无锡教育</t>
-  </si>
-  <si>
-    <t>高淳新闻</t>
-  </si>
-  <si>
-    <t>吉林卫视-2</t>
-  </si>
-  <si>
-    <t>百视通149</t>
-  </si>
-  <si>
-    <t>百视通150</t>
-  </si>
-  <si>
-    <t>上海纪实</t>
-  </si>
-  <si>
-    <t>百视通152</t>
-  </si>
-  <si>
-    <t>江苏十八</t>
-  </si>
-  <si>
-    <t>NBS南京新闻综合</t>
-  </si>
-  <si>
-    <t>体彩玩法直播</t>
-  </si>
-  <si>
-    <t>高频彩票</t>
-  </si>
-  <si>
-    <t>体彩教育</t>
-  </si>
-  <si>
-    <t>全纪录</t>
-  </si>
-  <si>
-    <t>快乐购物</t>
-  </si>
-  <si>
-    <t>第一财经-2</t>
-  </si>
-  <si>
-    <t>金色频道</t>
-  </si>
-  <si>
-    <t>CITY都市剧场</t>
-  </si>
-  <si>
-    <t>动漫秀场</t>
-  </si>
-  <si>
-    <t>幸福彩</t>
-  </si>
-  <si>
-    <t>全纪实</t>
-  </si>
-  <si>
-    <t>法制天地</t>
-  </si>
-  <si>
-    <t>七彩戏剧</t>
-  </si>
-  <si>
-    <t>欢笑剧场</t>
-  </si>
-  <si>
-    <t>游戏风云-1</t>
-  </si>
-  <si>
-    <t>极速汽车-1</t>
-  </si>
-  <si>
-    <t>魅力音乐</t>
-  </si>
-  <si>
-    <t>劲爆体育</t>
-  </si>
-  <si>
-    <t>生活时尚</t>
-  </si>
-  <si>
-    <t>东方财经</t>
-  </si>
-  <si>
-    <t>百视通183</t>
-  </si>
-  <si>
-    <t>百视通184</t>
-  </si>
-  <si>
-    <t>百视通185</t>
-  </si>
-  <si>
-    <t>百视通186</t>
-  </si>
-  <si>
-    <t>百视通187</t>
-  </si>
-  <si>
-    <t>百视通188</t>
-  </si>
-  <si>
-    <t>电竞世界</t>
-  </si>
-  <si>
-    <t>百视通190</t>
-  </si>
-  <si>
-    <t>百视通191</t>
-  </si>
-  <si>
-    <t>百视通192</t>
-  </si>
-  <si>
-    <t>游戏风云-2</t>
-  </si>
-  <si>
-    <t>百视通194</t>
-  </si>
-  <si>
-    <t>百视通195</t>
-  </si>
-  <si>
-    <t>BesTV-电影2</t>
-  </si>
-  <si>
-    <t>BesTV-电影3</t>
-  </si>
-  <si>
-    <t>BesTV-电视剧2</t>
-  </si>
-  <si>
-    <t>第一财经-1</t>
-  </si>
-  <si>
-    <t>BesTV-港剧</t>
-  </si>
-  <si>
-    <t>百视通202</t>
-  </si>
-  <si>
-    <t>百视通203</t>
-  </si>
-  <si>
-    <t>百视通204</t>
-  </si>
-  <si>
-    <t>百视通205</t>
-  </si>
-  <si>
-    <t>百视通206</t>
-  </si>
-  <si>
-    <t>百视通207</t>
-  </si>
-  <si>
-    <t>百视通208</t>
-  </si>
-  <si>
-    <t>百视通209</t>
-  </si>
-  <si>
-    <t>百视通210</t>
-  </si>
-  <si>
-    <t>BesTV-电视剧3</t>
-  </si>
-  <si>
-    <t>BesTV-动漫</t>
-  </si>
-  <si>
-    <t>嘉佳卡通</t>
-  </si>
-  <si>
-    <t>上海娱乐</t>
-  </si>
-  <si>
-    <t>百视通216</t>
-  </si>
-  <si>
-    <t>百视通217</t>
-  </si>
-  <si>
-    <t>超级盛典</t>
-  </si>
-  <si>
-    <t>百视通220</t>
-  </si>
-  <si>
-    <t>BesTV-养生</t>
-  </si>
-  <si>
-    <t>百视通222</t>
-  </si>
-  <si>
-    <t>百视通223</t>
-  </si>
-  <si>
-    <t>百视通224</t>
-  </si>
-  <si>
-    <t>快乐垂钓(HD)</t>
-  </si>
-  <si>
-    <t>第一剧场</t>
-  </si>
-  <si>
-    <t>书画频道</t>
-  </si>
-  <si>
-    <t>徐州新闻频道</t>
-  </si>
-  <si>
-    <t>徐州生活频道</t>
-  </si>
-  <si>
-    <t>徐州影视剧</t>
-  </si>
-  <si>
-    <t>新沂广告频道</t>
-  </si>
-  <si>
-    <t>邳州综合</t>
-  </si>
-  <si>
-    <t>先锋乒羽</t>
-  </si>
-  <si>
-    <t>茶频道(HD)</t>
-  </si>
-  <si>
-    <t>云南卫视</t>
-  </si>
-  <si>
-    <t>河北卫视</t>
-  </si>
-  <si>
-    <t>宁夏卫视</t>
-  </si>
-  <si>
-    <t>甘肃卫视</t>
-  </si>
-  <si>
-    <t>新疆卫视</t>
-  </si>
-  <si>
-    <t>内蒙古卫视</t>
-  </si>
-  <si>
-    <t>东方购物</t>
-  </si>
-  <si>
-    <t>连云港新闻综合</t>
-  </si>
-  <si>
-    <t>连云港公共</t>
-  </si>
-  <si>
-    <t>连云港综合</t>
-  </si>
-  <si>
-    <t>赣榆电视台</t>
-  </si>
-  <si>
-    <t>陕西卫视</t>
-  </si>
-  <si>
-    <t>广东南方卫视TVS2</t>
-  </si>
-  <si>
-    <t>山东教育SDETV</t>
-  </si>
-  <si>
-    <t>测试251</t>
-  </si>
-  <si>
-    <t>家有购物</t>
   </si>
 </sst>
 </file>
@@ -685,9 +691,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -876,18 +882,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -906,12 +900,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -919,12 +907,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,31 +942,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,19 +978,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,7 +990,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,7 +1014,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,10 +1196,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1202,16 +1208,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1223,10 +1229,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1247,28 +1253,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1277,62 +1283,62 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1351,17 +1357,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1705,7 +1705,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D119" sqref="D119:D222"/>
+      <selection pane="bottomLeft" activeCell="F255" sqref="F255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="D8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>CCTV-7,igmp://239.49.1.7:6000</v>
+        <v>CCTV-17,igmp://239.49.1.7:6000</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -2042,7 +2042,7 @@
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="4">
@@ -2093,7 +2093,7 @@
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4">
@@ -2246,21 +2246,21 @@
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>31</v>
       </c>
-      <c r="C32" s="8" t="str">
+      <c r="C32" s="7" t="str">
         <f t="shared" si="1"/>
         <v>igmp://239.49.1.31:6000</v>
       </c>
-      <c r="D32" s="8" t="str">
+      <c r="D32" s="7" t="str">
         <f t="shared" si="0"/>
         <v>31,igmp://239.49.1.31:6000</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2690,26 +2690,26 @@
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="6">
         <v>57</v>
       </c>
-      <c r="C58" s="8" t="str">
+      <c r="C58" s="7" t="str">
         <f t="shared" si="1"/>
         <v>igmp://239.49.1.57:6000</v>
       </c>
-      <c r="D58" s="8" t="str">
+      <c r="D58" s="7" t="str">
         <f t="shared" si="0"/>
         <v>57,igmp://239.49.1.57:6000</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="4">
@@ -2743,7 +2743,7 @@
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B61" s="4">
@@ -2760,7 +2760,7 @@
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B62" s="4">
@@ -2777,7 +2777,7 @@
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B63" s="4">
@@ -2794,7 +2794,7 @@
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B64" s="4">
@@ -2811,7 +2811,7 @@
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B65" s="4">
@@ -2828,7 +2828,7 @@
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B66" s="4">
@@ -2845,7 +2845,7 @@
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B67" s="4">
@@ -2862,7 +2862,7 @@
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B68" s="4">
@@ -2879,7 +2879,7 @@
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B69" s="4">
@@ -2896,7 +2896,7 @@
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B70" s="4">
@@ -2913,7 +2913,7 @@
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B71" s="4">
@@ -2947,40 +2947,40 @@
       <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="6">
         <v>72</v>
       </c>
-      <c r="C73" s="8" t="str">
+      <c r="C73" s="7" t="str">
         <f t="shared" si="3"/>
         <v>igmp://239.49.1.72:6000</v>
       </c>
-      <c r="D73" s="8" t="str">
+      <c r="D73" s="7" t="str">
         <f t="shared" si="2"/>
         <v>72,igmp://239.49.1.72:6000</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="6">
         <v>73</v>
       </c>
-      <c r="C74" s="8" t="str">
+      <c r="C74" s="7" t="str">
         <f t="shared" si="3"/>
         <v>igmp://239.49.1.73:6000</v>
       </c>
-      <c r="D74" s="8" t="str">
+      <c r="D74" s="7" t="str">
         <f t="shared" si="2"/>
         <v>73,igmp://239.49.1.73:6000</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3206,21 +3206,21 @@
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="6">
         <v>87</v>
       </c>
-      <c r="C88" s="8" t="str">
+      <c r="C88" s="7" t="str">
         <f t="shared" si="3"/>
         <v>igmp://239.49.1.87:6000</v>
       </c>
-      <c r="D88" s="8" t="str">
+      <c r="D88" s="7" t="str">
         <f t="shared" si="2"/>
         <v>87,igmp://239.49.1.87:6000</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3361,7 +3361,7 @@
       <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B97" s="4">
@@ -3429,7 +3429,7 @@
       <c r="E100" s="4"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B101" s="4">
@@ -3463,21 +3463,21 @@
       <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B103" s="7">
+      <c r="B103" s="6">
         <v>102</v>
       </c>
-      <c r="C103" s="8" t="str">
+      <c r="C103" s="7" t="str">
         <f t="shared" si="3"/>
         <v>igmp://239.49.1.102:6000</v>
       </c>
-      <c r="D103" s="8" t="str">
+      <c r="D103" s="7" t="str">
         <f t="shared" si="2"/>
         <v>102,igmp://239.49.1.102:6000</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E103" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3584,116 +3584,116 @@
       <c r="E109" s="4"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B110" s="7">
+      <c r="B110" s="6">
         <v>109</v>
       </c>
-      <c r="C110" s="8" t="str">
+      <c r="C110" s="7" t="str">
         <f t="shared" si="3"/>
         <v>igmp://239.49.1.109:6000</v>
       </c>
-      <c r="D110" s="8" t="str">
+      <c r="D110" s="7" t="str">
         <f t="shared" si="2"/>
         <v>109,igmp://239.49.1.109:6000</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="E110" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B111" s="7">
+      <c r="B111" s="6">
         <v>110</v>
       </c>
-      <c r="C111" s="8" t="str">
+      <c r="C111" s="7" t="str">
         <f t="shared" si="3"/>
         <v>igmp://239.49.1.110:6000</v>
       </c>
-      <c r="D111" s="8" t="str">
+      <c r="D111" s="7" t="str">
         <f t="shared" si="2"/>
         <v>110,igmp://239.49.1.110:6000</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="E111" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B112" s="7">
+      <c r="B112" s="6">
         <v>111</v>
       </c>
-      <c r="C112" s="8" t="str">
+      <c r="C112" s="7" t="str">
         <f t="shared" si="3"/>
         <v>igmp://239.49.1.111:6000</v>
       </c>
-      <c r="D112" s="8" t="str">
+      <c r="D112" s="7" t="str">
         <f t="shared" si="2"/>
         <v>111,igmp://239.49.1.111:6000</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="E112" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B113" s="6">
         <v>112</v>
       </c>
-      <c r="C113" s="8" t="str">
+      <c r="C113" s="7" t="str">
         <f t="shared" si="3"/>
         <v>igmp://239.49.1.112:6000</v>
       </c>
-      <c r="D113" s="8" t="str">
+      <c r="D113" s="7" t="str">
         <f t="shared" si="2"/>
         <v>112,igmp://239.49.1.112:6000</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E113" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B114" s="7">
+      <c r="B114" s="6">
         <v>113</v>
       </c>
-      <c r="C114" s="8" t="str">
+      <c r="C114" s="7" t="str">
         <f t="shared" si="3"/>
         <v>igmp://239.49.1.113:6000</v>
       </c>
-      <c r="D114" s="8" t="str">
+      <c r="D114" s="7" t="str">
         <f t="shared" si="2"/>
         <v>113,igmp://239.49.1.113:6000</v>
       </c>
-      <c r="E114" s="7" t="s">
+      <c r="E114" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B115" s="6">
         <v>114</v>
       </c>
-      <c r="C115" s="8" t="str">
+      <c r="C115" s="7" t="str">
         <f t="shared" si="3"/>
         <v>igmp://239.49.1.114:6000</v>
       </c>
-      <c r="D115" s="8" t="str">
+      <c r="D115" s="7" t="str">
         <f t="shared" si="2"/>
         <v>114,igmp://239.49.1.114:6000</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="E115" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3715,21 +3715,21 @@
       <c r="E116" s="4"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B117" s="7">
+      <c r="B117" s="6">
         <v>116</v>
       </c>
-      <c r="C117" s="8" t="str">
+      <c r="C117" s="7" t="str">
         <f t="shared" si="3"/>
         <v>igmp://239.49.1.116:6000</v>
       </c>
-      <c r="D117" s="8" t="str">
+      <c r="D117" s="7" t="str">
         <f t="shared" si="2"/>
         <v>116,igmp://239.49.1.116:6000</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="E117" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3836,21 +3836,21 @@
       <c r="E123" s="4"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="11" t="s">
+      <c r="A124" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B124" s="11">
+      <c r="B124" s="4">
         <v>123</v>
       </c>
-      <c r="C124" s="12" t="str">
+      <c r="C124" s="5" t="str">
         <f t="shared" si="3"/>
         <v>igmp://239.49.1.123:6000</v>
       </c>
-      <c r="D124" s="12" t="str">
+      <c r="D124" s="5" t="str">
         <f t="shared" si="2"/>
         <v>宿迁公共,igmp://239.49.1.123:6000</v>
       </c>
-      <c r="E124" s="11"/>
+      <c r="E124" s="4"/>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="4" t="s">
@@ -3887,97 +3887,97 @@
       <c r="E126" s="4"/>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="7" t="s">
+      <c r="A127" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B127" s="7">
+      <c r="B127" s="6">
         <v>126</v>
       </c>
-      <c r="C127" s="8" t="str">
+      <c r="C127" s="7" t="str">
         <f t="shared" si="3"/>
         <v>igmp://239.49.1.126:6000</v>
       </c>
-      <c r="D127" s="8" t="str">
+      <c r="D127" s="7" t="str">
         <f t="shared" si="2"/>
         <v>126,igmp://239.49.1.126:6000</v>
       </c>
-      <c r="E127" s="7" t="s">
+      <c r="E127" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="7" t="s">
+      <c r="A128" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B128" s="7">
+      <c r="B128" s="6">
         <v>127</v>
       </c>
-      <c r="C128" s="8" t="str">
+      <c r="C128" s="7" t="str">
         <f t="shared" si="3"/>
         <v>igmp://239.49.1.127:6000</v>
       </c>
-      <c r="D128" s="8" t="str">
+      <c r="D128" s="7" t="str">
         <f t="shared" si="2"/>
         <v>127,igmp://239.49.1.127:6000</v>
       </c>
-      <c r="E128" s="7" t="s">
+      <c r="E128" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="7" t="s">
+      <c r="A129" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B129" s="7">
+      <c r="B129" s="6">
         <v>128</v>
       </c>
-      <c r="C129" s="8" t="str">
+      <c r="C129" s="7" t="str">
         <f t="shared" si="3"/>
         <v>igmp://239.49.1.128:6000</v>
       </c>
-      <c r="D129" s="8" t="str">
+      <c r="D129" s="7" t="str">
         <f t="shared" si="2"/>
         <v>128,igmp://239.49.1.128:6000</v>
       </c>
-      <c r="E129" s="7" t="s">
+      <c r="E129" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="7" t="s">
+      <c r="A130" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B130" s="7">
+      <c r="B130" s="6">
         <v>129</v>
       </c>
-      <c r="C130" s="8" t="str">
+      <c r="C130" s="7" t="str">
         <f t="shared" si="3"/>
         <v>igmp://239.49.1.129:6000</v>
       </c>
-      <c r="D130" s="8" t="str">
+      <c r="D130" s="7" t="str">
         <f t="shared" ref="D130:D193" si="4">IF(A130="#",CONCATENATE(B130,",igmp://239.49.1.",B130,":6000"),CONCATENATE(A130,",igmp://239.49.1.",B130,":6000"))</f>
         <v>129,igmp://239.49.1.129:6000</v>
       </c>
-      <c r="E130" s="7" t="s">
+      <c r="E130" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="7" t="s">
+      <c r="A131" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B131" s="7">
+      <c r="B131" s="6">
         <v>130</v>
       </c>
-      <c r="C131" s="8" t="str">
+      <c r="C131" s="7" t="str">
         <f t="shared" ref="C131:C194" si="5">CONCATENATE("igmp://239.49.1.",B131,":6000")</f>
         <v>igmp://239.49.1.130:6000</v>
       </c>
-      <c r="D131" s="8" t="str">
+      <c r="D131" s="7" t="str">
         <f t="shared" si="4"/>
         <v>130,igmp://239.49.1.130:6000</v>
       </c>
-      <c r="E131" s="7" t="s">
+      <c r="E131" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4050,21 +4050,21 @@
       <c r="E135" s="4"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="7" t="s">
+      <c r="A136" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B136" s="7">
+      <c r="B136" s="6">
         <v>135</v>
       </c>
-      <c r="C136" s="8" t="str">
+      <c r="C136" s="7" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.135:6000</v>
       </c>
-      <c r="D136" s="8" t="str">
+      <c r="D136" s="7" t="str">
         <f t="shared" si="4"/>
         <v>135,igmp://239.49.1.135:6000</v>
       </c>
-      <c r="E136" s="7" t="s">
+      <c r="E136" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4086,40 +4086,40 @@
       <c r="E137" s="4"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="7" t="s">
+      <c r="A138" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B138" s="7">
+      <c r="B138" s="6">
         <v>137</v>
       </c>
-      <c r="C138" s="8" t="str">
+      <c r="C138" s="7" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.137:6000</v>
       </c>
-      <c r="D138" s="8" t="str">
+      <c r="D138" s="7" t="str">
         <f t="shared" si="4"/>
         <v>137,igmp://239.49.1.137:6000</v>
       </c>
-      <c r="E138" s="7" t="s">
+      <c r="E138" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="7" t="s">
+      <c r="A139" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B139" s="7">
+      <c r="B139" s="6">
         <v>138</v>
       </c>
-      <c r="C139" s="8" t="str">
+      <c r="C139" s="7" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.138:6000</v>
       </c>
-      <c r="D139" s="8" t="str">
+      <c r="D139" s="7" t="str">
         <f t="shared" si="4"/>
         <v>138,igmp://239.49.1.138:6000</v>
       </c>
-      <c r="E139" s="7" t="s">
+      <c r="E139" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4141,21 +4141,21 @@
       <c r="E140" s="4"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="11" t="s">
+      <c r="A141" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B141" s="11">
+      <c r="B141" s="4">
         <v>140</v>
       </c>
-      <c r="C141" s="12" t="str">
+      <c r="C141" s="5" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.140:6000</v>
       </c>
-      <c r="D141" s="12" t="str">
+      <c r="D141" s="5" t="str">
         <f t="shared" si="4"/>
         <v>宿迁综合,igmp://239.49.1.140:6000</v>
       </c>
-      <c r="E141" s="11"/>
+      <c r="E141" s="4"/>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="4" t="s">
@@ -4175,169 +4175,169 @@
       <c r="E142" s="4"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="11" t="s">
+      <c r="A143" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B143" s="11">
+      <c r="B143" s="4">
         <v>142</v>
       </c>
-      <c r="C143" s="12" t="str">
+      <c r="C143" s="5" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.142:6000</v>
       </c>
-      <c r="D143" s="12" t="str">
+      <c r="D143" s="5" t="str">
         <f t="shared" si="4"/>
         <v>高淳新闻,igmp://239.49.1.142:6000</v>
       </c>
-      <c r="E143" s="11"/>
+      <c r="E143" s="4"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="11" t="s">
+      <c r="A144" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B144" s="11">
+      <c r="B144" s="4">
         <v>143</v>
       </c>
-      <c r="C144" s="12" t="str">
+      <c r="C144" s="5" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.143:6000</v>
       </c>
-      <c r="D144" s="12" t="str">
+      <c r="D144" s="5" t="str">
         <f t="shared" si="4"/>
         <v>吉林卫视-2,igmp://239.49.1.143:6000</v>
       </c>
-      <c r="E144" s="11"/>
+      <c r="E144" s="4"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="7" t="s">
+      <c r="A145" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B145" s="7">
+      <c r="B145" s="6">
         <v>144</v>
       </c>
-      <c r="C145" s="8" t="str">
+      <c r="C145" s="7" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.144:6000</v>
       </c>
-      <c r="D145" s="8" t="str">
+      <c r="D145" s="7" t="str">
         <f t="shared" si="4"/>
         <v>144,igmp://239.49.1.144:6000</v>
       </c>
-      <c r="E145" s="7" t="s">
+      <c r="E145" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="7" t="s">
+      <c r="A146" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B146" s="7">
+      <c r="B146" s="6">
         <v>145</v>
       </c>
-      <c r="C146" s="8" t="str">
+      <c r="C146" s="7" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.145:6000</v>
       </c>
-      <c r="D146" s="8" t="str">
+      <c r="D146" s="7" t="str">
         <f t="shared" si="4"/>
         <v>145,igmp://239.49.1.145:6000</v>
       </c>
-      <c r="E146" s="7" t="s">
+      <c r="E146" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="7" t="s">
+      <c r="A147" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B147" s="7">
+      <c r="B147" s="6">
         <v>146</v>
       </c>
-      <c r="C147" s="8" t="str">
+      <c r="C147" s="7" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.146:6000</v>
       </c>
-      <c r="D147" s="8" t="str">
+      <c r="D147" s="7" t="str">
         <f t="shared" si="4"/>
         <v>146,igmp://239.49.1.146:6000</v>
       </c>
-      <c r="E147" s="7" t="s">
+      <c r="E147" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="7" t="s">
+      <c r="A148" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B148" s="7">
+      <c r="B148" s="6">
         <v>147</v>
       </c>
-      <c r="C148" s="8" t="str">
+      <c r="C148" s="7" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.147:6000</v>
       </c>
-      <c r="D148" s="8" t="str">
+      <c r="D148" s="7" t="str">
         <f t="shared" si="4"/>
         <v>147,igmp://239.49.1.147:6000</v>
       </c>
-      <c r="E148" s="7" t="s">
+      <c r="E148" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="7" t="s">
+      <c r="A149" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B149" s="7">
+      <c r="B149" s="6">
         <v>148</v>
       </c>
-      <c r="C149" s="8" t="str">
+      <c r="C149" s="7" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.148:6000</v>
       </c>
-      <c r="D149" s="8" t="str">
+      <c r="D149" s="7" t="str">
         <f t="shared" si="4"/>
         <v>148,igmp://239.49.1.148:6000</v>
       </c>
-      <c r="E149" s="7" t="s">
+      <c r="E149" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="11" t="s">
+      <c r="A150" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B150" s="11">
+      <c r="B150" s="4">
         <v>149</v>
       </c>
-      <c r="C150" s="12" t="str">
+      <c r="C150" s="5" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.149:6000</v>
       </c>
-      <c r="D150" s="12" t="str">
+      <c r="D150" s="5" t="str">
         <f t="shared" si="4"/>
         <v>百视通149,igmp://239.49.1.149:6000</v>
       </c>
-      <c r="E150" s="11" t="s">
+      <c r="E150" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="11" t="s">
+      <c r="A151" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B151" s="11">
+      <c r="B151" s="4">
         <v>150</v>
       </c>
-      <c r="C151" s="12" t="str">
+      <c r="C151" s="5" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.150:6000</v>
       </c>
-      <c r="D151" s="12" t="str">
+      <c r="D151" s="5" t="str">
         <f t="shared" si="4"/>
         <v>百视通150,igmp://239.49.1.150:6000</v>
       </c>
-      <c r="E151" s="11" t="s">
+      <c r="E151" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4359,97 +4359,97 @@
       <c r="E152" s="4"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="11" t="s">
+      <c r="A153" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B153" s="11">
+      <c r="B153" s="4">
         <v>152</v>
       </c>
-      <c r="C153" s="12" t="str">
+      <c r="C153" s="5" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.152:6000</v>
       </c>
-      <c r="D153" s="12" t="str">
+      <c r="D153" s="5" t="str">
         <f t="shared" si="4"/>
         <v>百视通152,igmp://239.49.1.152:6000</v>
       </c>
-      <c r="E153" s="11" t="s">
+      <c r="E153" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="7" t="s">
+      <c r="A154" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B154" s="7">
+      <c r="B154" s="6">
         <v>153</v>
       </c>
-      <c r="C154" s="8" t="str">
+      <c r="C154" s="7" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.153:6000</v>
       </c>
-      <c r="D154" s="8" t="str">
+      <c r="D154" s="7" t="str">
         <f t="shared" si="4"/>
         <v>153,igmp://239.49.1.153:6000</v>
       </c>
-      <c r="E154" s="7" t="s">
+      <c r="E154" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="7" t="s">
+      <c r="A155" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B155" s="7">
+      <c r="B155" s="6">
         <v>154</v>
       </c>
-      <c r="C155" s="8" t="str">
+      <c r="C155" s="7" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.154:6000</v>
       </c>
-      <c r="D155" s="8" t="str">
+      <c r="D155" s="7" t="str">
         <f t="shared" si="4"/>
         <v>154,igmp://239.49.1.154:6000</v>
       </c>
-      <c r="E155" s="7" t="s">
+      <c r="E155" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="7" t="s">
+      <c r="A156" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B156" s="7">
+      <c r="B156" s="6">
         <v>155</v>
       </c>
-      <c r="C156" s="8" t="str">
+      <c r="C156" s="7" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.155:6000</v>
       </c>
-      <c r="D156" s="8" t="str">
+      <c r="D156" s="7" t="str">
         <f t="shared" si="4"/>
         <v>155,igmp://239.49.1.155:6000</v>
       </c>
-      <c r="E156" s="7" t="s">
+      <c r="E156" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="7" t="s">
+      <c r="A157" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B157" s="7">
+      <c r="B157" s="6">
         <v>156</v>
       </c>
-      <c r="C157" s="8" t="str">
+      <c r="C157" s="7" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.156:6000</v>
       </c>
-      <c r="D157" s="8" t="str">
+      <c r="D157" s="7" t="str">
         <f t="shared" si="4"/>
         <v>156,igmp://239.49.1.156:6000</v>
       </c>
-      <c r="E157" s="7" t="s">
+      <c r="E157" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4556,78 +4556,78 @@
       <c r="E163" s="4"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="7" t="s">
+      <c r="A164" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B164" s="7">
+      <c r="B164" s="6">
         <v>163</v>
       </c>
-      <c r="C164" s="8" t="str">
+      <c r="C164" s="7" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.163:6000</v>
       </c>
-      <c r="D164" s="8" t="str">
+      <c r="D164" s="7" t="str">
         <f t="shared" si="4"/>
         <v>163,igmp://239.49.1.163:6000</v>
       </c>
-      <c r="E164" s="7" t="s">
+      <c r="E164" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="7" t="s">
+      <c r="A165" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B165" s="7">
+      <c r="B165" s="6">
         <v>164</v>
       </c>
-      <c r="C165" s="8" t="str">
+      <c r="C165" s="7" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.164:6000</v>
       </c>
-      <c r="D165" s="8" t="str">
+      <c r="D165" s="7" t="str">
         <f t="shared" si="4"/>
         <v>164,igmp://239.49.1.164:6000</v>
       </c>
-      <c r="E165" s="7" t="s">
+      <c r="E165" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="7" t="s">
+      <c r="A166" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B166" s="7">
+      <c r="B166" s="6">
         <v>165</v>
       </c>
-      <c r="C166" s="8" t="str">
+      <c r="C166" s="7" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.165:6000</v>
       </c>
-      <c r="D166" s="8" t="str">
+      <c r="D166" s="7" t="str">
         <f t="shared" si="4"/>
         <v>165,igmp://239.49.1.165:6000</v>
       </c>
-      <c r="E166" s="7" t="s">
+      <c r="E166" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="7" t="s">
+      <c r="A167" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B167" s="7">
+      <c r="B167" s="6">
         <v>166</v>
       </c>
-      <c r="C167" s="8" t="str">
+      <c r="C167" s="7" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.166:6000</v>
       </c>
-      <c r="D167" s="8" t="str">
+      <c r="D167" s="7" t="str">
         <f t="shared" si="4"/>
         <v>166,igmp://239.49.1.166:6000</v>
       </c>
-      <c r="E167" s="7" t="s">
+      <c r="E167" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4904,116 +4904,116 @@
       <c r="E183" s="4"/>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="11" t="s">
+      <c r="A184" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B184" s="11">
+      <c r="B184" s="4">
         <v>183</v>
       </c>
-      <c r="C184" s="12" t="str">
+      <c r="C184" s="5" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.183:6000</v>
       </c>
-      <c r="D184" s="12" t="str">
+      <c r="D184" s="5" t="str">
         <f t="shared" si="4"/>
         <v>百视通183,igmp://239.49.1.183:6000</v>
       </c>
-      <c r="E184" s="11" t="s">
+      <c r="E184" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="11" t="s">
+      <c r="A185" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B185" s="11">
+      <c r="B185" s="4">
         <v>184</v>
       </c>
-      <c r="C185" s="12" t="str">
+      <c r="C185" s="5" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.184:6000</v>
       </c>
-      <c r="D185" s="12" t="str">
+      <c r="D185" s="5" t="str">
         <f t="shared" si="4"/>
         <v>百视通184,igmp://239.49.1.184:6000</v>
       </c>
-      <c r="E185" s="11" t="s">
+      <c r="E185" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="11" t="s">
+      <c r="A186" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B186" s="11">
+      <c r="B186" s="4">
         <v>185</v>
       </c>
-      <c r="C186" s="12" t="str">
+      <c r="C186" s="5" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.185:6000</v>
       </c>
-      <c r="D186" s="12" t="str">
+      <c r="D186" s="5" t="str">
         <f t="shared" si="4"/>
         <v>百视通185,igmp://239.49.1.185:6000</v>
       </c>
-      <c r="E186" s="11" t="s">
+      <c r="E186" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="11" t="s">
+      <c r="A187" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B187" s="11">
+      <c r="B187" s="4">
         <v>186</v>
       </c>
-      <c r="C187" s="12" t="str">
+      <c r="C187" s="5" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.186:6000</v>
       </c>
-      <c r="D187" s="12" t="str">
+      <c r="D187" s="5" t="str">
         <f t="shared" si="4"/>
         <v>百视通186,igmp://239.49.1.186:6000</v>
       </c>
-      <c r="E187" s="11" t="s">
+      <c r="E187" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="11" t="s">
+      <c r="A188" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B188" s="11">
+      <c r="B188" s="4">
         <v>187</v>
       </c>
-      <c r="C188" s="12" t="str">
+      <c r="C188" s="5" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.187:6000</v>
       </c>
-      <c r="D188" s="12" t="str">
+      <c r="D188" s="5" t="str">
         <f t="shared" si="4"/>
         <v>百视通187,igmp://239.49.1.187:6000</v>
       </c>
-      <c r="E188" s="11" t="s">
+      <c r="E188" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="11" t="s">
+      <c r="A189" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B189" s="11">
+      <c r="B189" s="4">
         <v>188</v>
       </c>
-      <c r="C189" s="12" t="str">
+      <c r="C189" s="5" t="str">
         <f t="shared" si="5"/>
         <v>igmp://239.49.1.188:6000</v>
       </c>
-      <c r="D189" s="12" t="str">
+      <c r="D189" s="5" t="str">
         <f t="shared" si="4"/>
         <v>百视通188,igmp://239.49.1.188:6000</v>
       </c>
-      <c r="E189" s="11" t="s">
+      <c r="E189" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5035,7 +5035,7 @@
       <c r="E190" s="4"/>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="11" t="s">
+      <c r="A191" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B191" s="4">
@@ -5049,12 +5049,12 @@
         <f t="shared" si="4"/>
         <v>百视通190,igmp://239.49.1.190:6000</v>
       </c>
-      <c r="E191" s="11" t="s">
+      <c r="E191" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="11" t="s">
+      <c r="A192" s="4" t="s">
         <v>163</v>
       </c>
       <c r="B192" s="4">
@@ -5068,12 +5068,12 @@
         <f t="shared" si="4"/>
         <v>百视通191,igmp://239.49.1.191:6000</v>
       </c>
-      <c r="E192" s="11" t="s">
+      <c r="E192" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="11" t="s">
+      <c r="A193" s="4" t="s">
         <v>164</v>
       </c>
       <c r="B193" s="4">
@@ -5087,7 +5087,7 @@
         <f t="shared" si="4"/>
         <v>百视通192,igmp://239.49.1.192:6000</v>
       </c>
-      <c r="E193" s="11" t="s">
+      <c r="E193" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5109,40 +5109,40 @@
       <c r="E194" s="4"/>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="11" t="s">
+      <c r="A195" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B195" s="11">
+      <c r="B195" s="4">
         <v>194</v>
       </c>
-      <c r="C195" s="12" t="str">
+      <c r="C195" s="5" t="str">
         <f t="shared" ref="C195:C255" si="7">CONCATENATE("igmp://239.49.1.",B195,":6000")</f>
         <v>igmp://239.49.1.194:6000</v>
       </c>
-      <c r="D195" s="12" t="str">
+      <c r="D195" s="5" t="str">
         <f t="shared" si="6"/>
         <v>百视通194,igmp://239.49.1.194:6000</v>
       </c>
-      <c r="E195" s="11" t="s">
+      <c r="E195" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="11" t="s">
+      <c r="A196" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B196" s="11">
+      <c r="B196" s="4">
         <v>195</v>
       </c>
-      <c r="C196" s="12" t="str">
+      <c r="C196" s="5" t="str">
         <f t="shared" si="7"/>
         <v>igmp://239.49.1.195:6000</v>
       </c>
-      <c r="D196" s="12" t="str">
+      <c r="D196" s="5" t="str">
         <f t="shared" si="6"/>
         <v>百视通195,igmp://239.49.1.195:6000</v>
       </c>
-      <c r="E196" s="11" t="s">
+      <c r="E196" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5215,21 +5215,21 @@
       <c r="E200" s="4"/>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="7" t="s">
+      <c r="A201" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B201" s="7">
+      <c r="B201" s="6">
         <v>200</v>
       </c>
-      <c r="C201" s="8" t="str">
+      <c r="C201" s="7" t="str">
         <f t="shared" si="7"/>
         <v>igmp://239.49.1.200:6000</v>
       </c>
-      <c r="D201" s="8" t="str">
+      <c r="D201" s="7" t="str">
         <f t="shared" si="6"/>
         <v>200,igmp://239.49.1.200:6000</v>
       </c>
-      <c r="E201" s="7" t="s">
+      <c r="E201" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5251,192 +5251,192 @@
       <c r="E202" s="4"/>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="11" t="s">
+      <c r="A203" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B203" s="11">
+      <c r="B203" s="4">
         <v>202</v>
       </c>
-      <c r="C203" s="12" t="str">
+      <c r="C203" s="5" t="str">
         <f t="shared" si="7"/>
         <v>igmp://239.49.1.202:6000</v>
       </c>
-      <c r="D203" s="12" t="str">
+      <c r="D203" s="5" t="str">
         <f t="shared" si="6"/>
         <v>百视通202,igmp://239.49.1.202:6000</v>
       </c>
-      <c r="E203" s="11" t="s">
+      <c r="E203" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" s="11" t="s">
+      <c r="A204" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B204" s="11">
+      <c r="B204" s="4">
         <v>203</v>
       </c>
-      <c r="C204" s="12" t="str">
+      <c r="C204" s="5" t="str">
         <f t="shared" si="7"/>
         <v>igmp://239.49.1.203:6000</v>
       </c>
-      <c r="D204" s="12" t="str">
+      <c r="D204" s="5" t="str">
         <f t="shared" si="6"/>
         <v>百视通203,igmp://239.49.1.203:6000</v>
       </c>
-      <c r="E204" s="11" t="s">
+      <c r="E204" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="11" t="s">
+      <c r="A205" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B205" s="11">
+      <c r="B205" s="4">
         <v>204</v>
       </c>
-      <c r="C205" s="12" t="str">
+      <c r="C205" s="5" t="str">
         <f t="shared" si="7"/>
         <v>igmp://239.49.1.204:6000</v>
       </c>
-      <c r="D205" s="12" t="str">
+      <c r="D205" s="5" t="str">
         <f t="shared" si="6"/>
         <v>百视通204,igmp://239.49.1.204:6000</v>
       </c>
-      <c r="E205" s="11" t="s">
+      <c r="E205" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="11" t="s">
+      <c r="A206" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B206" s="11">
+      <c r="B206" s="4">
         <v>205</v>
       </c>
-      <c r="C206" s="12" t="str">
+      <c r="C206" s="5" t="str">
         <f t="shared" si="7"/>
         <v>igmp://239.49.1.205:6000</v>
       </c>
-      <c r="D206" s="12" t="str">
+      <c r="D206" s="5" t="str">
         <f t="shared" si="6"/>
         <v>百视通205,igmp://239.49.1.205:6000</v>
       </c>
-      <c r="E206" s="11" t="s">
+      <c r="E206" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="11" t="s">
+      <c r="A207" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B207" s="11">
+      <c r="B207" s="4">
         <v>206</v>
       </c>
-      <c r="C207" s="12" t="str">
+      <c r="C207" s="5" t="str">
         <f t="shared" si="7"/>
         <v>igmp://239.49.1.206:6000</v>
       </c>
-      <c r="D207" s="12" t="str">
+      <c r="D207" s="5" t="str">
         <f t="shared" si="6"/>
         <v>百视通206,igmp://239.49.1.206:6000</v>
       </c>
-      <c r="E207" s="11" t="s">
+      <c r="E207" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208" s="11" t="s">
+      <c r="A208" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B208" s="11">
+      <c r="B208" s="4">
         <v>207</v>
       </c>
-      <c r="C208" s="12" t="str">
+      <c r="C208" s="5" t="str">
         <f t="shared" si="7"/>
         <v>igmp://239.49.1.207:6000</v>
       </c>
-      <c r="D208" s="12" t="str">
+      <c r="D208" s="5" t="str">
         <f t="shared" si="6"/>
         <v>百视通207,igmp://239.49.1.207:6000</v>
       </c>
-      <c r="E208" s="11" t="s">
+      <c r="E208" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="11" t="s">
+      <c r="A209" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B209" s="11">
+      <c r="B209" s="4">
         <v>208</v>
       </c>
-      <c r="C209" s="12" t="str">
+      <c r="C209" s="5" t="str">
         <f t="shared" si="7"/>
         <v>igmp://239.49.1.208:6000</v>
       </c>
-      <c r="D209" s="12" t="str">
+      <c r="D209" s="5" t="str">
         <f t="shared" si="6"/>
         <v>百视通208,igmp://239.49.1.208:6000</v>
       </c>
-      <c r="E209" s="11" t="s">
+      <c r="E209" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210" s="11" t="s">
+      <c r="A210" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B210" s="11">
+      <c r="B210" s="4">
         <v>209</v>
       </c>
-      <c r="C210" s="12" t="str">
+      <c r="C210" s="5" t="str">
         <f t="shared" si="7"/>
         <v>igmp://239.49.1.209:6000</v>
       </c>
-      <c r="D210" s="12" t="str">
+      <c r="D210" s="5" t="str">
         <f t="shared" si="6"/>
         <v>百视通209,igmp://239.49.1.209:6000</v>
       </c>
-      <c r="E210" s="11" t="s">
+      <c r="E210" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" s="11" t="s">
+      <c r="A211" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B211" s="11">
+      <c r="B211" s="4">
         <v>210</v>
       </c>
-      <c r="C211" s="12" t="str">
+      <c r="C211" s="5" t="str">
         <f t="shared" si="7"/>
         <v>igmp://239.49.1.210:6000</v>
       </c>
-      <c r="D211" s="12" t="str">
+      <c r="D211" s="5" t="str">
         <f t="shared" si="6"/>
         <v>百视通210,igmp://239.49.1.210:6000</v>
       </c>
-      <c r="E211" s="11" t="s">
+      <c r="E211" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" s="7" t="s">
+      <c r="A212" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B212" s="7">
+      <c r="B212" s="6">
         <v>211</v>
       </c>
-      <c r="C212" s="8" t="str">
+      <c r="C212" s="7" t="str">
         <f t="shared" si="7"/>
         <v>igmp://239.49.1.211:6000</v>
       </c>
-      <c r="D212" s="8" t="str">
+      <c r="D212" s="7" t="str">
         <f t="shared" si="6"/>
         <v>211,igmp://239.49.1.211:6000</v>
       </c>
-      <c r="E212" s="7" t="s">
+      <c r="E212" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5492,24 +5492,24 @@
       <c r="E215" s="4"/>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216" s="11" t="s">
+      <c r="A216" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B216" s="11">
+      <c r="B216" s="4">
         <v>215</v>
       </c>
-      <c r="C216" s="12" t="str">
+      <c r="C216" s="5" t="str">
         <f t="shared" si="7"/>
         <v>igmp://239.49.1.215:6000</v>
       </c>
-      <c r="D216" s="12" t="str">
+      <c r="D216" s="5" t="str">
         <f t="shared" si="6"/>
         <v>上海娱乐,igmp://239.49.1.215:6000</v>
       </c>
-      <c r="E216" s="11"/>
+      <c r="E216" s="4"/>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217" s="11" t="s">
+      <c r="A217" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B217" s="4">
@@ -5523,155 +5523,155 @@
         <f t="shared" si="6"/>
         <v>百视通216,igmp://239.49.1.216:6000</v>
       </c>
-      <c r="E217" s="11" t="s">
+      <c r="E217" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218" s="11" t="s">
+      <c r="A218" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B218" s="11">
+      <c r="B218" s="4">
         <v>217</v>
       </c>
-      <c r="C218" s="12" t="str">
+      <c r="C218" s="5" t="str">
         <f t="shared" si="7"/>
         <v>igmp://239.49.1.217:6000</v>
       </c>
-      <c r="D218" s="12" t="str">
+      <c r="D218" s="5" t="str">
         <f t="shared" si="6"/>
         <v>百视通217,igmp://239.49.1.217:6000</v>
       </c>
-      <c r="E218" s="11" t="s">
+      <c r="E218" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219" s="11" t="s">
+      <c r="A219" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B219" s="11">
+      <c r="B219" s="4">
         <v>218</v>
       </c>
-      <c r="C219" s="12" t="str">
+      <c r="C219" s="5" t="str">
         <f t="shared" si="7"/>
         <v>igmp://239.49.1.218:6000</v>
       </c>
-      <c r="D219" s="12" t="str">
+      <c r="D219" s="5" t="str">
         <f t="shared" si="6"/>
         <v>超级盛典,igmp://239.49.1.218:6000</v>
       </c>
-      <c r="E219" s="11"/>
+      <c r="E219" s="4"/>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220" s="7" t="s">
+      <c r="A220" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B220" s="7">
+      <c r="B220" s="6">
         <v>219</v>
       </c>
-      <c r="C220" s="8" t="str">
+      <c r="C220" s="7" t="str">
         <f t="shared" si="7"/>
         <v>igmp://239.49.1.219:6000</v>
       </c>
-      <c r="D220" s="8" t="str">
+      <c r="D220" s="7" t="str">
         <f t="shared" si="6"/>
         <v>219,igmp://239.49.1.219:6000</v>
       </c>
-      <c r="E220" s="7" t="s">
+      <c r="E220" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="221" spans="1:5">
-      <c r="A221" s="11" t="s">
+      <c r="A221" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B221" s="11">
+      <c r="B221" s="4">
         <v>220</v>
       </c>
-      <c r="C221" s="12" t="str">
+      <c r="C221" s="5" t="str">
         <f t="shared" si="7"/>
         <v>igmp://239.49.1.220:6000</v>
       </c>
-      <c r="D221" s="12" t="str">
+      <c r="D221" s="5" t="str">
         <f t="shared" si="6"/>
         <v>百视通220,igmp://239.49.1.220:6000</v>
       </c>
-      <c r="E221" s="11" t="s">
+      <c r="E221" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222" s="11" t="s">
+      <c r="A222" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B222" s="11">
+      <c r="B222" s="4">
         <v>221</v>
       </c>
-      <c r="C222" s="12" t="str">
+      <c r="C222" s="5" t="str">
         <f t="shared" si="7"/>
         <v>igmp://239.49.1.221:6000</v>
       </c>
-      <c r="D222" s="12" t="str">
+      <c r="D222" s="5" t="str">
         <f t="shared" si="6"/>
         <v>BesTV-养生,igmp://239.49.1.221:6000</v>
       </c>
-      <c r="E222" s="11"/>
+      <c r="E222" s="4"/>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223" s="11" t="s">
+      <c r="A223" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B223" s="11">
+      <c r="B223" s="4">
         <v>222</v>
       </c>
-      <c r="C223" s="12" t="str">
+      <c r="C223" s="5" t="str">
         <f t="shared" si="7"/>
         <v>igmp://239.49.1.222:6000</v>
       </c>
-      <c r="D223" s="12" t="str">
+      <c r="D223" s="5" t="str">
         <f t="shared" si="6"/>
         <v>百视通222,igmp://239.49.1.222:6000</v>
       </c>
-      <c r="E223" s="11" t="s">
+      <c r="E223" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224" s="11" t="s">
+      <c r="A224" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B224" s="11">
+      <c r="B224" s="4">
         <v>223</v>
       </c>
-      <c r="C224" s="12" t="str">
+      <c r="C224" s="5" t="str">
         <f t="shared" si="7"/>
         <v>igmp://239.49.1.223:6000</v>
       </c>
-      <c r="D224" s="12" t="str">
+      <c r="D224" s="5" t="str">
         <f t="shared" si="6"/>
         <v>百视通223,igmp://239.49.1.223:6000</v>
       </c>
-      <c r="E224" s="11" t="s">
+      <c r="E224" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225" s="11" t="s">
+      <c r="A225" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B225" s="11">
+      <c r="B225" s="4">
         <v>224</v>
       </c>
-      <c r="C225" s="12" t="str">
+      <c r="C225" s="5" t="str">
         <f t="shared" si="7"/>
         <v>igmp://239.49.1.224:6000</v>
       </c>
-      <c r="D225" s="12" t="str">
+      <c r="D225" s="5" t="str">
         <f t="shared" si="6"/>
         <v>百视通224,igmp://239.49.1.224:6000</v>
       </c>
-      <c r="E225" s="11" t="s">
+      <c r="E225" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5965,40 +5965,40 @@
       <c r="E242" s="4"/>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243" s="7" t="s">
+      <c r="A243" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B243" s="7">
+      <c r="B243" s="6">
         <v>242</v>
       </c>
-      <c r="C243" s="8" t="str">
+      <c r="C243" s="7" t="str">
         <f t="shared" si="7"/>
         <v>igmp://239.49.1.242:6000</v>
       </c>
-      <c r="D243" s="8" t="str">
+      <c r="D243" s="7" t="str">
         <f t="shared" si="6"/>
         <v>242,igmp://239.49.1.242:6000</v>
       </c>
-      <c r="E243" s="7" t="s">
+      <c r="E243" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244" s="7" t="s">
+      <c r="A244" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B244" s="7">
+      <c r="B244" s="6">
         <v>243</v>
       </c>
-      <c r="C244" s="8" t="str">
+      <c r="C244" s="7" t="str">
         <f t="shared" si="7"/>
         <v>igmp://239.49.1.243:6000</v>
       </c>
-      <c r="D244" s="8" t="str">
+      <c r="D244" s="7" t="str">
         <f t="shared" si="6"/>
         <v>243,igmp://239.49.1.243:6000</v>
       </c>
-      <c r="E244" s="7" t="s">
+      <c r="E244" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6122,76 +6122,72 @@
       <c r="E251" s="4"/>
     </row>
     <row r="252" spans="1:5">
-      <c r="A252" s="11" t="s">
+      <c r="A252" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B252" s="11">
+      <c r="B252" s="4">
         <v>251</v>
       </c>
-      <c r="C252" s="12" t="str">
+      <c r="C252" s="5" t="str">
         <f t="shared" si="7"/>
         <v>igmp://239.49.1.251:6000</v>
       </c>
-      <c r="D252" s="12" t="str">
+      <c r="D252" s="5" t="str">
         <f t="shared" si="6"/>
         <v>测试251,igmp://239.49.1.251:6000</v>
       </c>
-      <c r="E252" s="11"/>
+      <c r="E252" s="4"/>
     </row>
     <row r="253" spans="1:5">
-      <c r="A253" s="11" t="s">
+      <c r="A253" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B253" s="11">
+      <c r="B253" s="4">
         <v>252</v>
       </c>
-      <c r="C253" s="12" t="str">
+      <c r="C253" s="5" t="str">
         <f t="shared" si="7"/>
         <v>igmp://239.49.1.252:6000</v>
       </c>
-      <c r="D253" s="12" t="str">
+      <c r="D253" s="5" t="str">
         <f t="shared" si="6"/>
         <v>家有购物,igmp://239.49.1.252:6000</v>
       </c>
-      <c r="E253" s="11"/>
+      <c r="E253" s="4"/>
     </row>
     <row r="254" spans="1:5">
-      <c r="A254" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B254" s="7">
+      <c r="A254" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B254" s="9">
         <v>253</v>
       </c>
-      <c r="C254" s="8" t="str">
+      <c r="C254" s="10" t="str">
         <f t="shared" si="7"/>
         <v>igmp://239.49.1.253:6000</v>
       </c>
-      <c r="D254" s="8" t="str">
+      <c r="D254" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>253,igmp://239.49.1.253:6000</v>
-      </c>
-      <c r="E254" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>九屏导视(HD),igmp://239.49.1.253:6000</v>
+      </c>
+      <c r="E254" s="9"/>
     </row>
     <row r="255" spans="1:5">
-      <c r="A255" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B255" s="7">
+      <c r="A255" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B255" s="9">
         <v>254</v>
       </c>
-      <c r="C255" s="8" t="str">
+      <c r="C255" s="10" t="str">
         <f t="shared" si="7"/>
         <v>igmp://239.49.1.254:6000</v>
       </c>
-      <c r="D255" s="8" t="str">
+      <c r="D255" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>254,igmp://239.49.1.254:6000</v>
-      </c>
-      <c r="E255" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>CCTV-7,igmp://239.49.1.254:6000</v>
+      </c>
+      <c r="E255" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E255">
